--- a/biology/Botanique/Forêt_mixte_du_sud-est_des_États-Unis/Forêt_mixte_du_sud-est_des_États-Unis.xlsx
+++ b/biology/Botanique/Forêt_mixte_du_sud-est_des_États-Unis/Forêt_mixte_du_sud-est_des_États-Unis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_mixte_du_sud-est_des_%C3%89tats-Unis</t>
+          <t>Forêt_mixte_du_sud-est_des_États-Unis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t>Dans le sud-est des États-Unis, dans le bas-Mississippi, le sud des Appalaches et le nord de la Floride, se développent deux formations :
 la pinède où dix espèces de pin croissent favorisées par l'humidité, l'humus acide et le sable, ainsi que par la répétition des feux de défrichement. Si on s'abstient d'intervenir, après deux ou trois décennies on voit apparaître le liquidambar et le nyssa, puis dix ou 20 ans plus tard les chênes et le carya.
